--- a/Workshop/Powder Coat Oven/2021_Jul_21_MD_Podwer_Coat_Oven_Design.xlsx
+++ b/Workshop/Powder Coat Oven/2021_Jul_21_MD_Podwer_Coat_Oven_Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Large_Format_Printer\Workshop\Powder Coat Oven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103C07C-7DED-48FE-91A8-4500F4F535F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6809C86D-D68F-41CF-A5BB-2A11CB4F881F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" activeTab="2" xr2:uid="{7AE4893C-E2FC-489A-AC07-598B3DB78696}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" activeTab="3" xr2:uid="{7AE4893C-E2FC-489A-AC07-598B3DB78696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>Wall Studs</t>
   </si>
@@ -207,33 +207,6 @@
     <t>Rivet Size Calculations</t>
   </si>
   <si>
-    <t>Metal Thickness</t>
-  </si>
-  <si>
-    <t>22GA Galvanized Sheet</t>
-  </si>
-  <si>
-    <t>25GA Galv Stud</t>
-  </si>
-  <si>
-    <t>Rivet Diam</t>
-  </si>
-  <si>
-    <t>Rivet Length</t>
-  </si>
-  <si>
-    <t>Rivet Diam #/32</t>
-  </si>
-  <si>
-    <t>Rivet Diam (mm)</t>
-  </si>
-  <si>
-    <t>4mm to 32s of in</t>
-  </si>
-  <si>
-    <t>Rivet Length (#/16)</t>
-  </si>
-  <si>
     <t>26GA Carbon Steel Inside Sheets, 4 x 10ft</t>
   </si>
   <si>
@@ -349,6 +322,36 @@
   </si>
   <si>
     <t>Insulation Packages (12 pad/pack)</t>
+  </si>
+  <si>
+    <t>Rivets 100ct bag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Rivets-Diameter-Steel-Blind-0-020-0-125/dp/B07JZD3FJP/ref=as_li_ss_tl?ie=UTF8&amp;qid=1541850595&amp;sr=8-4&amp;keywords=1/8%22+rivets+steel+1000+zinc&amp;linkCode=ll1&amp;tag=powcoathecomg-20&amp;linkId=87fc0127c690be1751c308f1c4b6aa83&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>Quantity Estimate</t>
+  </si>
+  <si>
+    <t>8 ft vertical Piece</t>
+  </si>
+  <si>
+    <t>Spacing</t>
+  </si>
+  <si>
+    <t>Hole Count</t>
+  </si>
+  <si>
+    <t>Qty  Rivets</t>
+  </si>
+  <si>
+    <t>Qty Pieces</t>
+  </si>
+  <si>
+    <t>Pieces/Wall</t>
+  </si>
+  <si>
+    <t># Walls</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1013,7 +1016,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>120</v>
@@ -1038,7 +1041,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>120</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>120</v>
@@ -1202,10 +1205,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>105</v>
@@ -1242,10 +1245,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>105</v>
@@ -1376,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2146F350-418D-405C-A0E6-1A715D8DB750}">
   <dimension ref="A3:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1391,7 +1394,7 @@
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -1411,7 +1414,7 @@
         <v>53</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -1448,36 +1451,36 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1499,10 +1502,10 @@
         <v>212.48000000000002</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K6" s="11">
-        <f>SUM(L6:S6)</f>
+        <f t="shared" ref="K6:K11" si="0">SUM(L6:S6)</f>
         <v>12</v>
       </c>
       <c r="L6" s="11">
@@ -1542,21 +1545,21 @@
         <v>8.18</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" ref="D7:D9" si="0">C7*B7</f>
+        <f t="shared" ref="D7:D9" si="1">C7*B7</f>
         <v>73.62</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F9" si="1">E7*B7</f>
+        <f t="shared" ref="F7:F9" si="2">E7*B7</f>
         <v>0</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K7" s="11">
-        <f>SUM(L7:S7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L7" s="11">
@@ -1594,7 +1597,7 @@
         <v>4.3316666666666661</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.306666666666658</v>
       </c>
       <c r="E8" s="4">
@@ -1602,14 +1605,14 @@
         <v>4.0758333333333328</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.213333333333324</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K8" s="11">
-        <f>SUM(L8:S8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L8" s="11"/>
@@ -1635,21 +1638,21 @@
         <v>7.88</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.76</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K9" s="11">
-        <f>SUM(L9:S9)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L9" s="11">
@@ -1679,10 +1682,10 @@
         <v>390.17333333333335</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K10" s="11">
-        <f>SUM(L10:S10)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L10" s="11">
@@ -1715,7 +1718,7 @@
         <v>50</v>
       </c>
       <c r="K11" s="11">
-        <f>SUM(L11:S11)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="L11" s="11">
@@ -1745,7 +1748,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J12" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K12" s="11">
         <f>INT(K11/12)+1</f>
@@ -1762,21 +1765,21 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1791,7 +1794,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1858,7 +1861,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1892,14 +1895,14 @@
         <v>8.18</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" ref="D26:D28" si="2">C26*B26</f>
+        <f t="shared" ref="D26:D28" si="3">C26*B26</f>
         <v>73.62</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ref="F26:F28" si="3">E26*B26</f>
+        <f t="shared" ref="F26:F28" si="4">E26*B26</f>
         <v>0</v>
       </c>
     </row>
@@ -1915,7 +1918,7 @@
         <v>4.3316666666666661</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69.306666666666658</v>
       </c>
       <c r="E27" s="4">
@@ -1923,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1939,14 +1942,14 @@
         <v>7.88</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.76</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1962,21 +1965,21 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2028,12 +2031,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B39" s="7">
         <f>D29</f>
@@ -2042,7 +2045,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B40" s="7">
         <f>D10</f>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B41" s="7">
         <f>D10</f>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B42" s="7">
         <f>D10</f>
@@ -2069,7 +2072,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B43" s="7">
         <f>D18</f>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B44" s="7">
         <f>D36</f>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B45" s="7">
         <f>SUM(B39:B44)</f>
@@ -2104,88 +2107,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904C3B76-1ADC-40AE-803B-1C8A5A229B21}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="5" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B6">
-        <v>3.4000000000000002E-2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <f>3*B6</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="D6" s="8">
-        <f>INT(C6/(1/32))</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="8">
-        <f>C6*25.4</f>
-        <v>2.5908000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>96</v>
       </c>
       <c r="F6">
-        <f>B6+B7+1.5*C6</f>
-        <v>0.18700000000000003</v>
-      </c>
-      <c r="G6" s="9">
-        <f>F6*16</f>
-        <v>2.9920000000000004</v>
-      </c>
-      <c r="H6">
-        <f>INT((4/25.4)/(1/32))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <f>E6/F6+1</f>
+        <v>17</v>
+      </c>
+      <c r="H6" s="8">
+        <f>G6*D6</f>
+        <v>816</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5827D5A2-4924-4D14-A3D8-39865A8CA4BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>